--- a/VT_Model_DMD_V02.xlsx
+++ b/VT_Model_DMD_V02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/Materiały_Szkoleniowe/Model_I_Lipiec/NCAE_2022_S1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\NCAE_2022_S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1908408C0DD2C4CF1FF5335FA779D741CDBC0C57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48D507B-8EB0-482B-B7F4-AAB23142DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34777" windowHeight="14930" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BILANS" sheetId="141" r:id="rId1"/>
@@ -1293,33 +1293,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="27">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0."/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="178" formatCode="#.00"/>
-    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="181" formatCode="yyyy"/>
-    <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="184" formatCode="#,##0___)"/>
-    <numFmt numFmtId="185" formatCode="#,##0.000___)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.000000"/>
-    <numFmt numFmtId="188" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0."/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="#.00"/>
+    <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="182" formatCode="yyyy"/>
+    <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="185" formatCode="#,##0___)"/>
+    <numFmt numFmtId="186" formatCode="#,##0.000___)"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="0.000000"/>
+    <numFmt numFmtId="189" formatCode="0.00000"/>
   </numFmts>
   <fonts count="118">
     <font>
@@ -3118,7 +3118,7 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="5" fillId="20" borderId="1">
+    <xf numFmtId="175" fontId="5" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3226,15 +3226,15 @@
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3274,15 +3274,15 @@
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3304,18 +3304,18 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="81" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="81" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
@@ -3522,8 +3522,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="76" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3639,7 +3639,7 @@
     <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4036,15 +4036,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4054,7 +4054,7 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -4212,12 +4212,12 @@
     <xf numFmtId="0" fontId="55" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="76" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="76" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="98" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="98" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -4277,41 +4277,41 @@
     <xf numFmtId="0" fontId="10" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="8" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="8" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="44" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="44" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="44" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="44" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1243" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="3" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="39" borderId="21" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="21" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="19" xfId="800" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4346,25 +4346,25 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="25" xfId="1245" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="10" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="26" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="112" fillId="0" borderId="10" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="112" fillId="0" borderId="26" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="112" fillId="0" borderId="10" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="27" xfId="1244" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="112" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="113" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="113" fillId="0" borderId="11" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="112" fillId="0" borderId="28" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="112" fillId="0" borderId="28" xfId="1246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="22" xfId="1244" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4374,14 +4374,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="25" xfId="1244" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="112" fillId="0" borderId="26" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="112" fillId="0" borderId="26" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="27" xfId="1244" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="11" xfId="1244" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="112" fillId="0" borderId="28" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="112" fillId="0" borderId="28" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="1244" applyFont="1" applyAlignment="1">
@@ -4394,9 +4394,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="44" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="44" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="47" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="44" fillId="47" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="44" fillId="47" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="46" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="21" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4405,15 +4405,15 @@
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="186" fontId="5" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="100" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="5" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="100" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="100" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="791" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="100" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="791" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="21" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4422,7 +4422,7 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="183" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4915,6 +4915,7 @@
     <cellStyle name="Comma0 - Style1" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
     <cellStyle name="Comma0 - Style2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
     <cellStyle name="Comma0_Input" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Currency" xfId="1243" builtinId="4"/>
     <cellStyle name="Currency0" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
     <cellStyle name="Dane wejściowe" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
     <cellStyle name="Dane wejściowe 10" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
@@ -5217,6 +5218,7 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 14" xfId="792" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
@@ -5237,7 +5239,6 @@
     <cellStyle name="Normal GHG-Shade" xfId="806" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="807" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normale_B2020" xfId="808" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="809" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
     <cellStyle name="Normalny 10 2" xfId="810" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
     <cellStyle name="Normalny 10 2 2" xfId="811" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
@@ -5650,7 +5651,6 @@
     <cellStyle name="Verknüpfte Zelle 2" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
     <cellStyle name="Währung 2" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
     <cellStyle name="Währung 2 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
-    <cellStyle name="Walutowy" xfId="1243" builtinId="4"/>
     <cellStyle name="Warnender Text 2" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
     <cellStyle name="Warning Text 2" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
     <cellStyle name="Warning Text 3" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
@@ -5769,7 +5769,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -6247,11 +6247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="40" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="40" customWidth="1"/>
@@ -6265,17 +6265,17 @@
     <col min="10" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6">
+    <row r="2" spans="2:9" ht="15">
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.25" thickBot="1">
+    <row r="4" spans="2:9" ht="13.5" thickBot="1">
       <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="51.6">
+    <row r="5" spans="2:9" ht="51">
       <c r="B5" s="42"/>
       <c r="C5" s="43" t="s">
         <v>2</v>
@@ -6299,7 +6299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.350000000000001">
+    <row r="6" spans="2:9" ht="15.75">
       <c r="B6" s="45"/>
       <c r="C6" s="46" t="s">
         <v>7</v>
@@ -6323,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15">
+    <row r="7" spans="2:9" ht="15.75">
       <c r="B7" s="48" t="s">
         <v>14</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="2:9" ht="15">
+    <row r="8" spans="2:9" ht="15.75">
       <c r="B8" s="48" t="s">
         <v>15</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="H8" s="49"/>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="2:9" ht="15">
+    <row r="9" spans="2:9" ht="15.75">
       <c r="B9" s="48" t="s">
         <v>16</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="H9" s="49"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="2:9" ht="15">
+    <row r="10" spans="2:9" ht="15.75">
       <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>32467</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15">
+    <row r="11" spans="2:9" ht="15.75">
       <c r="B11" s="48" t="s">
         <v>18</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="2:9" ht="15">
+    <row r="12" spans="2:9" ht="15.75">
       <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="2:9" ht="15">
+    <row r="13" spans="2:9" ht="15.75">
       <c r="B13" s="82" t="s">
         <v>20</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" thickBot="1">
+    <row r="14" spans="2:9" ht="13.5" thickBot="1">
       <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
@@ -6492,19 +6492,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.7">
+    <row r="18" spans="2:5">
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
     </row>
-    <row r="19" spans="2:5" ht="13.7">
+    <row r="19" spans="2:5">
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="2:5" ht="14.25" thickBot="1">
+    <row r="20" spans="2:5" ht="13.5" thickBot="1">
       <c r="B20" s="41" t="s">
         <v>25</v>
       </c>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="E21" s="41"/>
     </row>
-    <row r="22" spans="2:5" ht="13.7">
+    <row r="22" spans="2:5">
       <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="2:5" ht="13.7">
+    <row r="23" spans="2:5">
       <c r="B23" s="58" t="s">
         <v>31</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="E23" s="41"/>
     </row>
-    <row r="24" spans="2:5" ht="14.25" thickBot="1">
+    <row r="24" spans="2:5" ht="13.5" thickBot="1">
       <c r="B24" s="60" t="s">
         <v>33</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="2:5" ht="13.7">
+    <row r="25" spans="2:5">
       <c r="B25" s="84" t="s">
         <v>35</v>
       </c>
@@ -6568,19 +6568,19 @@
       <c r="D25" s="63"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="2:5" ht="13.7">
+    <row r="26" spans="2:5">
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="63"/>
       <c r="E26" s="41"/>
     </row>
-    <row r="27" spans="2:5" ht="13.7">
+    <row r="27" spans="2:5">
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="63"/>
       <c r="E27" s="41"/>
     </row>
-    <row r="28" spans="2:5" ht="14.25" thickBot="1">
+    <row r="28" spans="2:5" ht="13.5" thickBot="1">
       <c r="B28" s="41" t="s">
         <v>36</v>
       </c>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="E29" s="41"/>
     </row>
-    <row r="30" spans="2:5" ht="13.7">
+    <row r="30" spans="2:5">
       <c r="B30" s="58" t="s">
         <v>31</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="E30" s="41"/>
     </row>
-    <row r="31" spans="2:5" ht="14.25" thickBot="1">
+    <row r="31" spans="2:5" ht="13.5" thickBot="1">
       <c r="B31" s="60" t="s">
         <v>33</v>
       </c>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="E31" s="41"/>
     </row>
-    <row r="32" spans="2:5" ht="13.7">
+    <row r="32" spans="2:5">
       <c r="B32" s="84" t="s">
         <v>35</v>
       </c>
@@ -6634,13 +6634,13 @@
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
     </row>
-    <row r="33" spans="2:5" ht="13.7">
+    <row r="33" spans="2:5">
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
     </row>
-    <row r="36" spans="2:5" ht="13.7">
+    <row r="36" spans="2:5">
       <c r="B36" s="41"/>
     </row>
   </sheetData>
@@ -6658,7 +6658,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -6673,12 +6673,12 @@
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6">
+    <row r="2" spans="2:9" ht="15">
       <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.399999999999999">
+    <row r="4" spans="2:9" ht="18">
       <c r="B4" s="85" t="s">
         <v>42</v>
       </c>
@@ -6869,7 +6869,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -6901,7 +6901,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="2:10" ht="13.7">
+    <row r="5" spans="2:10">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -6954,7 +6954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="39.4" thickBot="1">
+    <row r="8" spans="2:10" ht="39" thickBot="1">
       <c r="B8" s="34" t="s">
         <v>85</v>
       </c>
@@ -7051,7 +7051,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -7062,14 +7062,14 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.399999999999999">
+    <row r="2" spans="2:7" ht="18">
       <c r="B2" s="85" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="13.7">
+    <row r="3" spans="2:7">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
@@ -7182,11 +7182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:AU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -7201,7 +7201,7 @@
     <col min="18" max="18" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" ht="19.149999999999999" thickBot="1">
+    <row r="2" spans="2:47" ht="18.75" thickBot="1">
       <c r="B2" s="85" t="s">
         <v>111</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>1.4699559247693428</v>
       </c>
     </row>
-    <row r="4" spans="2:47" ht="14.25" thickBot="1">
+    <row r="4" spans="2:47" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0.89020775816038067</v>
       </c>
     </row>
-    <row r="5" spans="2:47" ht="13.7">
+    <row r="5" spans="2:47">
       <c r="B5" s="37" t="s">
         <v>45</v>
       </c>
@@ -7561,12 +7561,30 @@
         <f>BILANS!D30*3.6</f>
         <v>422.42837571324009</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="78">
+        <f>C7</f>
+        <v>422.42837571324009</v>
+      </c>
+      <c r="E7" s="78">
+        <f t="shared" ref="E7:I7" si="0">D7</f>
+        <v>422.42837571324009</v>
+      </c>
+      <c r="F7" s="78">
+        <f t="shared" si="0"/>
+        <v>422.42837571324009</v>
+      </c>
+      <c r="G7" s="78">
+        <f t="shared" si="0"/>
+        <v>422.42837571324009</v>
+      </c>
+      <c r="H7" s="78">
+        <f t="shared" si="0"/>
+        <v>422.42837571324009</v>
+      </c>
+      <c r="I7" s="78">
+        <f t="shared" si="0"/>
+        <v>422.42837571324009</v>
+      </c>
       <c r="O7" s="65" t="s">
         <v>77</v>
       </c>
@@ -7592,12 +7610,30 @@
         <f>BILANS!D31</f>
         <v>202.96761239999998</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="D8" s="79">
+        <f>C8</f>
+        <v>202.96761239999998</v>
+      </c>
+      <c r="E8" s="79">
+        <f t="shared" ref="E8:I8" si="1">D8</f>
+        <v>202.96761239999998</v>
+      </c>
+      <c r="F8" s="79">
+        <f t="shared" si="1"/>
+        <v>202.96761239999998</v>
+      </c>
+      <c r="G8" s="79">
+        <f t="shared" si="1"/>
+        <v>202.96761239999998</v>
+      </c>
+      <c r="H8" s="79">
+        <f t="shared" si="1"/>
+        <v>202.96761239999998</v>
+      </c>
+      <c r="I8" s="79">
+        <f t="shared" si="1"/>
+        <v>202.96761239999998</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="O8" s="66" t="s">
         <v>95</v>
@@ -7634,7 +7670,7 @@
       </c>
     </row>
     <row r="10" spans="2:47" ht="15.75" customHeight="1"/>
-    <row r="11" spans="2:47" ht="14.25" thickBot="1">
+    <row r="11" spans="2:47" ht="13.5" thickBot="1">
       <c r="P11" s="65" t="s">
         <v>155</v>
       </c>
@@ -7928,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:47" ht="14.25" thickBot="1">
+    <row r="14" spans="2:47" ht="13.5" thickBot="1">
       <c r="C14" s="3" t="s">
         <v>156</v>
       </c>
@@ -7946,123 +7982,123 @@
         <v>0.99</v>
       </c>
       <c r="S14" s="71">
-        <f t="shared" ref="S14:AU14" si="0">R14</f>
+        <f t="shared" ref="S14:AU14" si="2">R14</f>
         <v>0.99</v>
       </c>
       <c r="T14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="U14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="V14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="W14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="X14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="Y14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="Z14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AA14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AB14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AC14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AD14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AE14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AF14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AG14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AH14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AI14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AJ14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AK14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AL14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AM14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AN14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AO14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AP14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AQ14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AR14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AS14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AT14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="AU14" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="2:47" ht="13.7" thickBot="1">
+    <row r="15" spans="2:47" ht="13.5" thickBot="1">
       <c r="B15" s="12" t="s">
         <v>45</v>
       </c>
@@ -8078,7 +8114,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:47" ht="65.25">
+    <row r="16" spans="2:47" ht="67.5">
       <c r="B16" s="13" t="s">
         <v>147</v>
       </c>
@@ -8102,7 +8138,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:47" ht="14.25" thickBot="1">
+    <row r="17" spans="2:47" ht="13.5" thickBot="1">
       <c r="B17" s="11" t="str">
         <f>SEC_Comm!C11</f>
         <v>ELE_UZYTEK</v>
@@ -8280,7 +8316,7 @@
     </row>
     <row r="19" spans="2:47">
       <c r="B19" s="11" t="str">
-        <f t="shared" ref="B19:B44" si="1">$B$17</f>
+        <f t="shared" ref="B19:B44" si="3">$B$17</f>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C19" t="s">
@@ -8290,7 +8326,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f t="shared" ref="G19:G44" si="2">G18</f>
+        <f t="shared" ref="G19:G44" si="4">G18</f>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H19" t="s">
@@ -8311,125 +8347,125 @@
         <v>426.36752031676605</v>
       </c>
       <c r="S19" s="76">
-        <f t="shared" ref="S19:AU19" si="3">$Q$19*(S13+(S3-1)*S12)</f>
+        <f t="shared" ref="S19:AU19" si="5">$Q$19*(S13+(S3-1)*S12)</f>
         <v>430.38012996714787</v>
       </c>
       <c r="T19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>434.46757478750919</v>
       </c>
       <c r="U19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>438.63125045377029</v>
       </c>
       <c r="V19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>442.87257867120712</v>
       </c>
       <c r="W19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>446.66714311274995</v>
       </c>
       <c r="X19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>450.52386251984552</v>
       </c>
       <c r="Y19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>454.44375499082906</v>
       </c>
       <c r="Z19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>458.42785530048747</v>
       </c>
       <c r="AA19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>462.47721517321799</v>
       </c>
       <c r="AB19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>466.14063011149403</v>
       </c>
       <c r="AC19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>469.8574576395701</v>
       </c>
       <c r="AD19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>473.62847651300552</v>
       </c>
       <c r="AE19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>477.45447684161564</v>
       </c>
       <c r="AF19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>481.3362602550169</v>
       </c>
       <c r="AG19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>484.76681057447644</v>
       </c>
       <c r="AH19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>488.24092888299327</v>
       </c>
       <c r="AI19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>491.75916849402819</v>
       </c>
       <c r="AJ19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>495.32208974812329</v>
       </c>
       <c r="AK19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>498.93026010214533</v>
       </c>
       <c r="AL19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>501.54592599141904</v>
       </c>
       <c r="AM19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>504.18537125454185</v>
       </c>
       <c r="AN19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>506.8488120730309</v>
       </c>
       <c r="AO19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>509.53646659373919</v>
       </c>
       <c r="AP19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>512.24855494672215</v>
       </c>
       <c r="AQ19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>514.11353919051942</v>
       </c>
       <c r="AR19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>515.99007748465067</v>
       </c>
       <c r="AS19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>517.87824140938778</v>
       </c>
       <c r="AT19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>519.77810298846055</v>
       </c>
       <c r="AU19" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>521.68973469180355</v>
       </c>
     </row>
     <row r="20" spans="2:47">
       <c r="B20" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C20" t="s">
@@ -8439,7 +8475,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H20" t="s">
@@ -8460,125 +8496,125 @@
         <v>200.57875764681418</v>
       </c>
       <c r="S20" s="76">
-        <f t="shared" ref="S20:AU20" si="4">$Q$20*(S14+(S4-1)*S13)</f>
+        <f t="shared" ref="S20:AU20" si="6">$Q$20*(S14+(S4-1)*S13)</f>
         <v>200.19075531847787</v>
       </c>
       <c r="T20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199.77120977284739</v>
       </c>
       <c r="U20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199.31743342349893</v>
       </c>
       <c r="V20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.82862265548212</v>
       </c>
       <c r="W20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.30476150293694</v>
       </c>
       <c r="X20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>197.7459085073499</v>
       </c>
       <c r="Y20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>197.15261182991236</v>
       </c>
       <c r="Z20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196.52602101254021</v>
       </c>
       <c r="AA20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195.86754637286177</v>
       </c>
       <c r="AB20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195.17335610449067</v>
       </c>
       <c r="AC20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>194.44612714994409</v>
       </c>
       <c r="AD20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>193.68881851526476</v>
       </c>
       <c r="AE20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>192.90475642127419</v>
       </c>
       <c r="AF20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>192.0979961963979</v>
       </c>
       <c r="AG20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191.26901681643415</v>
       </c>
       <c r="AH20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190.42117643392433</v>
       </c>
       <c r="AI20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>189.5576416110905</v>
       </c>
       <c r="AJ20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>188.68170663703424</v>
       </c>
       <c r="AK20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>187.79498938556307</v>
       </c>
       <c r="AL20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>186.90099170195785</v>
       </c>
       <c r="AM20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185.99994243021115</v>
       </c>
       <c r="AN20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185.0937361857028</v>
       </c>
       <c r="AO20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>184.18238893429282</v>
       </c>
       <c r="AP20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>183.26682137390455</v>
       </c>
       <c r="AQ20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>182.34787969511493</v>
       </c>
       <c r="AR20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181.42557454183068</v>
       </c>
       <c r="AS20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180.50185907091813</v>
       </c>
       <c r="AT20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>179.57735062896174</v>
       </c>
       <c r="AU20" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>178.65366708976907</v>
       </c>
     </row>
     <row r="21" spans="2:47">
       <c r="B21" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C21" t="s">
@@ -8588,7 +8624,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G21" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H21" t="s">
@@ -8600,7 +8636,7 @@
     </row>
     <row r="22" spans="2:47">
       <c r="B22" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C22" t="s">
@@ -8610,7 +8646,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G22" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H22" t="s">
@@ -8622,7 +8658,7 @@
     </row>
     <row r="23" spans="2:47">
       <c r="B23" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C23" t="s">
@@ -8632,7 +8668,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G23" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H23" t="s">
@@ -8644,7 +8680,7 @@
     </row>
     <row r="24" spans="2:47">
       <c r="B24" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C24" t="s">
@@ -8654,7 +8690,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G24" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H24" t="s">
@@ -8666,7 +8702,7 @@
     </row>
     <row r="25" spans="2:47">
       <c r="B25" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C25" t="s">
@@ -8676,7 +8712,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G25" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H25" t="s">
@@ -8688,7 +8724,7 @@
     </row>
     <row r="26" spans="2:47">
       <c r="B26" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C26" t="s">
@@ -8698,7 +8734,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H26" t="s">
@@ -8710,7 +8746,7 @@
     </row>
     <row r="27" spans="2:47">
       <c r="B27" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C27" t="s">
@@ -8720,7 +8756,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G27" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H27" t="s">
@@ -8732,7 +8768,7 @@
     </row>
     <row r="28" spans="2:47">
       <c r="B28" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C28" t="s">
@@ -8742,7 +8778,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G28" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H28" t="s">
@@ -8754,7 +8790,7 @@
     </row>
     <row r="29" spans="2:47">
       <c r="B29" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C29" t="s">
@@ -8764,7 +8800,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H29" t="s">
@@ -8776,7 +8812,7 @@
     </row>
     <row r="30" spans="2:47">
       <c r="B30" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C30" t="s">
@@ -8786,7 +8822,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G30" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H30" t="s">
@@ -8798,7 +8834,7 @@
     </row>
     <row r="31" spans="2:47">
       <c r="B31" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C31" t="s">
@@ -8808,7 +8844,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G31" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H31" t="s">
@@ -8820,7 +8856,7 @@
     </row>
     <row r="32" spans="2:47">
       <c r="B32" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C32" t="s">
@@ -8830,7 +8866,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G32" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H32" t="s">
@@ -8842,7 +8878,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C33" t="s">
@@ -8852,7 +8888,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H33" t="s">
@@ -8864,7 +8900,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C34" t="s">
@@ -8874,7 +8910,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H34" t="s">
@@ -8886,7 +8922,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C35" t="s">
@@ -8896,7 +8932,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H35" t="s">
@@ -8908,7 +8944,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C36" t="s">
@@ -8918,7 +8954,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H36" t="s">
@@ -8930,7 +8966,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C37" t="s">
@@ -8940,7 +8976,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H37" t="s">
@@ -8952,7 +8988,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C38" t="s">
@@ -8962,7 +8998,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H38" t="s">
@@ -8974,7 +9010,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C39" t="s">
@@ -8984,7 +9020,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H39" t="s">
@@ -8996,7 +9032,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C40" t="s">
@@ -9006,7 +9042,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H40" t="s">
@@ -9018,7 +9054,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C41" t="s">
@@ -9028,7 +9064,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H41" t="s">
@@ -9040,7 +9076,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C42" t="s">
@@ -9050,7 +9086,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H42" t="s">
@@ -9062,7 +9098,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C43" t="s">
@@ -9072,7 +9108,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G43" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H43" t="s">
@@ -9084,7 +9120,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ELE_UZYTEK</v>
       </c>
       <c r="C44" t="s">
@@ -9094,7 +9130,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CIEP_UZYTEK</v>
       </c>
       <c r="H44" t="s">
@@ -9116,6 +9152,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec85db34e74be2b7676d82a37db561ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c47b525c3abbe3dcec1085a86f8d7d20" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -9334,34 +9390,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB0C7D8-3DA2-4040-BD22-32A4309F1E67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB0C7D8-3DA2-4040-BD22-32A4309F1E67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>